--- a/survey/rq3_responses.xlsx
+++ b/survey/rq3_responses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auror\Documents\Repositorios\kdis-ds\xai4models\supplementary_material\survey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auror\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E5B900-4BB6-49EE-A494-0A5C847E6249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEB934E-DA08-4872-A3E4-22A0AD28FC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="4485" windowWidth="21600" windowHeight="11235" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Background" sheetId="1" r:id="rId1"/>
@@ -201,7 +201,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +219,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -396,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -412,48 +426,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -463,30 +435,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -496,12 +450,97 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,51 +824,51 @@
   <dimension ref="B2:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" customWidth="1"/>
-    <col min="8" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="8" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="7"/>
-      <c r="C2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="11" t="s">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="32"/>
+      <c r="C2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="11" t="s">
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="11" t="s">
+      <c r="K2" s="30"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="30" t="s">
+      <c r="N2" s="30"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="8"/>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="33"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
@@ -869,105 +908,105 @@
       <c r="O3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="31"/>
+      <c r="P3" s="28"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="21">
-        <v>2</v>
-      </c>
-      <c r="D4" s="22">
-        <v>2</v>
-      </c>
-      <c r="E4" s="22">
-        <v>5</v>
-      </c>
-      <c r="F4" s="23">
-        <v>2</v>
-      </c>
-      <c r="G4" s="21">
-        <v>0</v>
-      </c>
-      <c r="H4" s="22">
-        <v>5</v>
-      </c>
-      <c r="I4" s="23">
-        <v>4</v>
-      </c>
-      <c r="J4" s="21">
-        <v>4</v>
-      </c>
-      <c r="K4" s="22">
-        <v>3</v>
-      </c>
-      <c r="L4" s="23">
-        <v>2</v>
-      </c>
-      <c r="M4" s="21">
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8">
+        <v>15</v>
+      </c>
+      <c r="F4" s="9">
+        <v>2</v>
+      </c>
+      <c r="G4" s="47">
+        <v>0</v>
+      </c>
+      <c r="H4" s="48">
+        <v>10</v>
+      </c>
+      <c r="I4" s="48">
+        <v>10</v>
+      </c>
+      <c r="J4" s="47">
+        <v>5</v>
+      </c>
+      <c r="K4" s="48">
         <v>7</v>
       </c>
-      <c r="N4" s="22">
-        <v>2</v>
-      </c>
-      <c r="O4" s="23">
-        <v>0</v>
-      </c>
-      <c r="P4" s="33">
-        <v>920.55555555555554</v>
-      </c>
-      <c r="Q4" s="48" t="s">
+      <c r="L4" s="48">
+        <v>8</v>
+      </c>
+      <c r="M4" s="47">
+        <v>13</v>
+      </c>
+      <c r="N4" s="48">
+        <v>7</v>
+      </c>
+      <c r="O4" s="49">
+        <v>0</v>
+      </c>
+      <c r="P4" s="50">
+        <v>870.15</v>
+      </c>
+      <c r="Q4" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="24">
-        <v>0</v>
-      </c>
-      <c r="H5" s="26">
-        <v>55.555555555555557</v>
-      </c>
-      <c r="I5" s="32">
-        <v>44.444444444444443</v>
-      </c>
-      <c r="J5" s="29">
-        <v>44.444444444444443</v>
-      </c>
-      <c r="K5" s="26">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="L5" s="32">
-        <v>22.222222222222221</v>
-      </c>
-      <c r="M5" s="29">
-        <v>77.777777777777786</v>
-      </c>
-      <c r="N5" s="26">
-        <v>22.222222222222221</v>
-      </c>
-      <c r="O5" s="32">
-        <v>0</v>
-      </c>
-      <c r="P5" s="32">
-        <v>385.12274378148294</v>
-      </c>
-      <c r="Q5" s="48" t="s">
+      <c r="G5" s="51">
+        <v>0</v>
+      </c>
+      <c r="H5" s="52">
+        <v>50</v>
+      </c>
+      <c r="I5" s="52">
+        <v>50</v>
+      </c>
+      <c r="J5" s="51">
+        <v>25</v>
+      </c>
+      <c r="K5" s="52">
+        <v>35</v>
+      </c>
+      <c r="L5" s="52">
+        <v>40</v>
+      </c>
+      <c r="M5" s="51">
+        <v>65</v>
+      </c>
+      <c r="N5" s="52">
+        <v>35</v>
+      </c>
+      <c r="O5" s="53">
+        <v>0</v>
+      </c>
+      <c r="P5" s="54">
+        <v>291.39180984047118</v>
+      </c>
+      <c r="Q5" s="26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="M7" s="6"/>
     </row>
   </sheetData>
@@ -989,51 +1028,51 @@
   <dimension ref="B2:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="C4" sqref="C4:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="16"/>
-      <c r="C2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="9" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="36"/>
+      <c r="C2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="18" t="s">
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="20"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="17"/>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="37"/>
       <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="15"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1054,80 +1093,80 @@
       </c>
       <c r="M3" s="35"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="37" t="s">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="21">
-        <v>5</v>
-      </c>
-      <c r="D4" s="23">
+      <c r="C4" s="7">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9">
+        <v>9</v>
+      </c>
+      <c r="E4" s="21">
+        <v>133.05000000000001</v>
+      </c>
+      <c r="F4" s="21">
+        <v>128.26315789473685</v>
+      </c>
+      <c r="G4" s="7">
+        <v>12</v>
+      </c>
+      <c r="H4" s="8">
+        <v>6</v>
+      </c>
+      <c r="I4" s="9">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7">
         <v>4</v>
       </c>
-      <c r="E4" s="39">
-        <v>139.11111111111111</v>
-      </c>
-      <c r="F4" s="39">
-        <v>127.77777777777777</v>
-      </c>
-      <c r="G4" s="21">
-        <v>7</v>
-      </c>
-      <c r="H4" s="22">
-        <v>1</v>
-      </c>
-      <c r="I4" s="23">
-        <v>1</v>
-      </c>
-      <c r="J4" s="21">
-        <v>1</v>
-      </c>
-      <c r="K4" s="22">
-        <v>3</v>
-      </c>
-      <c r="L4" s="23">
-        <v>5</v>
-      </c>
-      <c r="M4" s="33">
-        <v>106.11111111111111</v>
+      <c r="K4" s="8">
+        <v>5</v>
+      </c>
+      <c r="L4" s="9">
+        <v>11</v>
+      </c>
+      <c r="M4" s="17">
+        <v>105.25</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="38" t="s">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="29">
-        <v>55.555555555555557</v>
-      </c>
-      <c r="D5" s="32">
-        <v>44.444444444444443</v>
-      </c>
-      <c r="E5" s="36">
-        <v>102.1083302728583</v>
-      </c>
-      <c r="F5" s="36">
-        <v>120.72776998041687</v>
-      </c>
-      <c r="G5" s="29">
-        <v>77.777777777777786</v>
-      </c>
-      <c r="H5" s="26">
-        <v>11.111111111111111</v>
-      </c>
-      <c r="I5" s="32">
-        <v>11.111111111111111</v>
-      </c>
-      <c r="J5" s="29">
-        <v>11.111111111111111</v>
-      </c>
-      <c r="K5" s="26">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="L5" s="32">
-        <v>55.555555555555557</v>
-      </c>
-      <c r="M5" s="32">
-        <v>113.28883930516329</v>
+      <c r="C5" s="15">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="D5" s="16">
+        <v>45</v>
+      </c>
+      <c r="E5" s="18">
+        <v>111.09714809926254</v>
+      </c>
+      <c r="F5" s="18">
+        <v>99.709490301276489</v>
+      </c>
+      <c r="G5" s="15">
+        <v>60</v>
+      </c>
+      <c r="H5" s="12">
+        <v>30</v>
+      </c>
+      <c r="I5" s="16">
+        <v>10</v>
+      </c>
+      <c r="J5" s="15">
+        <v>20</v>
+      </c>
+      <c r="K5" s="12">
+        <v>25</v>
+      </c>
+      <c r="L5" s="16">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="M5" s="16">
+        <v>80.763380836927126</v>
       </c>
     </row>
   </sheetData>
@@ -1148,56 +1187,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3734E6CF-7531-4A7E-ABD4-9765C41CD4A7}">
   <dimension ref="B2:Z5"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W3" sqref="U3:W5"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B2" s="7"/>
-      <c r="C2" s="18" t="s">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B2" s="32"/>
+      <c r="C2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="19" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="18" t="s">
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="18" t="s">
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="19"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="19" t="s">
+      <c r="V2" s="39"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="20"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="40"/>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B3" s="8"/>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B3" s="33"/>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1216,19 +1253,19 @@
       <c r="H3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="42" t="s">
+      <c r="M3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="5" t="s">
@@ -1252,13 +1289,13 @@
       <c r="T3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="43" t="s">
+      <c r="U3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="44" t="s">
+      <c r="V3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="42" t="s">
+      <c r="W3" s="22" t="s">
         <v>21</v>
       </c>
       <c r="X3" s="3" t="s">
@@ -1271,158 +1308,158 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="21">
-        <v>0</v>
-      </c>
-      <c r="D4" s="22">
-        <v>0</v>
-      </c>
-      <c r="E4" s="22">
-        <v>0</v>
-      </c>
-      <c r="F4" s="22">
-        <v>3</v>
-      </c>
-      <c r="G4" s="22">
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>5</v>
+      </c>
+      <c r="G4" s="8">
+        <v>15</v>
+      </c>
+      <c r="H4" s="21">
+        <v>64.2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8">
         <v>6</v>
       </c>
-      <c r="H4" s="39">
-        <v>55.888888888888886</v>
-      </c>
-      <c r="I4" s="21">
-        <v>0</v>
-      </c>
-      <c r="J4" s="22">
-        <v>1</v>
-      </c>
-      <c r="K4" s="22">
-        <v>2</v>
-      </c>
-      <c r="L4" s="22">
-        <v>6</v>
-      </c>
-      <c r="M4" s="23">
-        <v>0</v>
-      </c>
-      <c r="N4" s="39">
-        <v>77.222222222222229</v>
-      </c>
-      <c r="O4" s="22">
-        <v>1</v>
-      </c>
-      <c r="P4" s="22">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="22">
-        <v>0</v>
-      </c>
-      <c r="R4" s="22">
-        <v>4</v>
-      </c>
-      <c r="S4" s="22">
-        <v>0</v>
-      </c>
-      <c r="T4" s="39">
-        <v>62.555555555555557</v>
-      </c>
-      <c r="U4" s="21">
-        <v>5</v>
-      </c>
-      <c r="V4" s="22">
-        <v>4</v>
-      </c>
-      <c r="W4" s="23">
-        <v>1</v>
-      </c>
-      <c r="X4" s="22">
-        <v>6</v>
-      </c>
-      <c r="Y4" s="22">
-        <v>3</v>
-      </c>
-      <c r="Z4" s="23">
-        <v>1</v>
+      <c r="K4" s="8">
+        <v>2</v>
+      </c>
+      <c r="L4" s="8">
+        <v>11</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+      <c r="N4" s="21">
+        <v>69.5</v>
+      </c>
+      <c r="O4" s="8">
+        <v>2</v>
+      </c>
+      <c r="P4" s="8">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>0</v>
+      </c>
+      <c r="R4" s="8">
+        <v>8</v>
+      </c>
+      <c r="S4" s="8">
+        <v>0</v>
+      </c>
+      <c r="T4" s="21">
+        <v>58.3</v>
+      </c>
+      <c r="U4" s="7">
+        <v>11</v>
+      </c>
+      <c r="V4" s="8">
+        <v>10</v>
+      </c>
+      <c r="W4" s="9">
+        <v>3</v>
+      </c>
+      <c r="X4" s="8">
+        <v>11</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="29">
-        <v>0</v>
-      </c>
-      <c r="D5" s="26">
-        <v>0</v>
-      </c>
-      <c r="E5" s="26">
-        <v>0</v>
-      </c>
-      <c r="F5" s="26">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="G5" s="26">
-        <v>66.666666666666657</v>
-      </c>
-      <c r="H5" s="36">
-        <v>50.831693962636258</v>
-      </c>
-      <c r="I5" s="29">
-        <v>0</v>
-      </c>
-      <c r="J5" s="26">
-        <v>11.111111111111111</v>
-      </c>
-      <c r="K5" s="26">
-        <v>22.222222222222221</v>
-      </c>
-      <c r="L5" s="26">
-        <v>66.666666666666657</v>
-      </c>
-      <c r="M5" s="32">
-        <v>0</v>
-      </c>
-      <c r="N5" s="36">
-        <v>59.702968472634964</v>
-      </c>
-      <c r="O5" s="26">
-        <v>11.111111111111111</v>
-      </c>
-      <c r="P5" s="26">
-        <v>44.444444444444443</v>
-      </c>
-      <c r="Q5" s="26">
-        <v>0</v>
-      </c>
-      <c r="R5" s="26">
-        <v>44.444444444444443</v>
-      </c>
-      <c r="S5" s="26">
-        <v>0</v>
-      </c>
-      <c r="T5" s="36">
-        <v>49.079300909627648</v>
-      </c>
-      <c r="U5" s="29">
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>25</v>
+      </c>
+      <c r="G5" s="12">
+        <v>75</v>
+      </c>
+      <c r="H5" s="18">
+        <v>39.406918975706468</v>
+      </c>
+      <c r="I5" s="15">
+        <v>5</v>
+      </c>
+      <c r="J5" s="12">
+        <v>30</v>
+      </c>
+      <c r="K5" s="12">
+        <v>10</v>
+      </c>
+      <c r="L5" s="12">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="M5" s="16">
+        <v>0</v>
+      </c>
+      <c r="N5" s="18">
+        <v>45.77691902902022</v>
+      </c>
+      <c r="O5" s="12">
+        <v>10</v>
+      </c>
+      <c r="P5" s="12">
         <v>50</v>
       </c>
-      <c r="V5" s="26">
+      <c r="Q5" s="12">
+        <v>0</v>
+      </c>
+      <c r="R5" s="12">
         <v>40</v>
       </c>
-      <c r="W5" s="32">
-        <v>10</v>
-      </c>
-      <c r="X5" s="26">
-        <v>60</v>
-      </c>
-      <c r="Y5" s="26">
-        <v>30</v>
-      </c>
-      <c r="Z5" s="32">
-        <v>10</v>
+      <c r="S5" s="12">
+        <v>0</v>
+      </c>
+      <c r="T5" s="18">
+        <v>35.47586280987769</v>
+      </c>
+      <c r="U5" s="15">
+        <v>45.833333333333329</v>
+      </c>
+      <c r="V5" s="12">
+        <v>41.666666666666671</v>
+      </c>
+      <c r="W5" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="X5" s="12">
+        <v>45.833333333333329</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>41.666666666666671</v>
+      </c>
+      <c r="Z5" s="16">
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>
@@ -1442,99 +1479,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2BAABF-AD8D-4C11-8EBE-0361E3EE8DCB}">
   <dimension ref="B2:BE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2:AP2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" customWidth="1"/>
-    <col min="2" max="2" width="4.77734375" customWidth="1"/>
-    <col min="3" max="57" width="5.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="3" max="57" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:57" x14ac:dyDescent="0.3">
-      <c r="B2" s="40"/>
-      <c r="C2" s="11" t="s">
+    <row r="2" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B2" s="45"/>
+      <c r="C2" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="11" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="11" t="s">
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="11" t="s">
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="11" t="s">
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="11" t="s">
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="11" t="s">
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="12" t="s">
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="11" t="s">
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="30"/>
+      <c r="AQ2" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="13"/>
-      <c r="AV2" s="11" t="s">
+      <c r="AR2" s="30"/>
+      <c r="AS2" s="30"/>
+      <c r="AT2" s="30"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="AW2" s="12"/>
-      <c r="AX2" s="12"/>
-      <c r="AY2" s="12"/>
-      <c r="AZ2" s="13"/>
-      <c r="BA2" s="12" t="s">
+      <c r="AW2" s="30"/>
+      <c r="AX2" s="30"/>
+      <c r="AY2" s="30"/>
+      <c r="AZ2" s="31"/>
+      <c r="BA2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="BB2" s="12"/>
-      <c r="BC2" s="12"/>
-      <c r="BD2" s="12"/>
-      <c r="BE2" s="13"/>
+      <c r="BB2" s="30"/>
+      <c r="BC2" s="30"/>
+      <c r="BD2" s="30"/>
+      <c r="BE2" s="31"/>
     </row>
-    <row r="3" spans="2:57" x14ac:dyDescent="0.3">
-      <c r="B3" s="41"/>
+    <row r="3" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B3" s="46"/>
       <c r="C3" s="2">
         <v>1</v>
       </c>
@@ -1640,19 +1675,19 @@
       <c r="AK3" s="4">
         <v>5</v>
       </c>
-      <c r="AL3" s="45">
+      <c r="AL3" s="25">
         <v>1</v>
       </c>
-      <c r="AM3" s="45">
-        <v>2</v>
-      </c>
-      <c r="AN3" s="45">
-        <v>3</v>
-      </c>
-      <c r="AO3" s="45">
+      <c r="AM3" s="25">
+        <v>2</v>
+      </c>
+      <c r="AN3" s="25">
+        <v>3</v>
+      </c>
+      <c r="AO3" s="25">
         <v>4</v>
       </c>
-      <c r="AP3" s="45">
+      <c r="AP3" s="25">
         <v>5</v>
       </c>
       <c r="AQ3" s="2">
@@ -1701,353 +1736,348 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:57" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
+    <row r="4" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="21">
-        <v>0</v>
-      </c>
-      <c r="D4" s="22">
-        <v>0</v>
-      </c>
-      <c r="E4" s="22">
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
         <v>1</v>
       </c>
-      <c r="F4" s="22">
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>13</v>
+      </c>
+      <c r="G4" s="9">
+        <v>5</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>4</v>
+      </c>
+      <c r="K4" s="8">
+        <v>7</v>
+      </c>
+      <c r="L4" s="9">
+        <v>9</v>
+      </c>
+      <c r="M4" s="7">
+        <v>3</v>
+      </c>
+      <c r="N4" s="8">
+        <v>3</v>
+      </c>
+      <c r="O4" s="8">
+        <v>2</v>
+      </c>
+      <c r="P4" s="8">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>3</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0</v>
+      </c>
+      <c r="S4" s="8">
+        <v>2</v>
+      </c>
+      <c r="T4" s="8">
+        <v>3</v>
+      </c>
+      <c r="U4" s="8">
+        <v>9</v>
+      </c>
+      <c r="V4" s="9">
         <v>6</v>
       </c>
-      <c r="G4" s="23">
-        <v>2</v>
-      </c>
-      <c r="H4" s="21">
-        <v>0</v>
-      </c>
-      <c r="I4" s="22">
-        <v>0</v>
-      </c>
-      <c r="J4" s="22">
-        <v>2</v>
-      </c>
-      <c r="K4" s="22">
-        <v>2</v>
-      </c>
-      <c r="L4" s="23">
-        <v>5</v>
-      </c>
-      <c r="M4" s="21">
+      <c r="W4" s="7">
+        <v>0</v>
+      </c>
+      <c r="X4" s="8">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>9</v>
+      </c>
+      <c r="AA4" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="7">
         <v>1</v>
       </c>
-      <c r="N4" s="22">
+      <c r="AC4" s="8">
+        <v>6</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>8</v>
+      </c>
+      <c r="AF4" s="9">
         <v>1</v>
       </c>
-      <c r="O4" s="22">
+      <c r="AG4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>10</v>
+      </c>
+      <c r="AK4" s="9">
+        <v>6</v>
+      </c>
+      <c r="AL4" s="8">
         <v>1</v>
       </c>
-      <c r="P4" s="22">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="23">
+      <c r="AM4" s="8">
         <v>1</v>
       </c>
-      <c r="R4" s="21">
-        <v>0</v>
-      </c>
-      <c r="S4" s="22">
+      <c r="AN4" s="8">
+        <v>9</v>
+      </c>
+      <c r="AO4" s="8">
+        <v>4</v>
+      </c>
+      <c r="AP4" s="8">
+        <v>5</v>
+      </c>
+      <c r="AQ4" s="7">
         <v>1</v>
       </c>
-      <c r="T4" s="22">
-        <v>2</v>
-      </c>
-      <c r="U4" s="22">
+      <c r="AR4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AS4" s="8">
+        <v>5</v>
+      </c>
+      <c r="AT4" s="8">
+        <v>7</v>
+      </c>
+      <c r="AU4" s="9">
         <v>4</v>
       </c>
-      <c r="V4" s="23">
-        <v>2</v>
-      </c>
-      <c r="W4" s="21">
-        <v>0</v>
-      </c>
-      <c r="X4" s="22">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="22">
-        <v>3</v>
-      </c>
-      <c r="Z4" s="22">
+      <c r="AV4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AX4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AY4" s="8">
+        <v>6</v>
+      </c>
+      <c r="AZ4" s="9">
+        <v>8</v>
+      </c>
+      <c r="BA4" s="8">
+        <v>2</v>
+      </c>
+      <c r="BB4" s="8">
+        <v>3</v>
+      </c>
+      <c r="BC4" s="8">
+        <v>2</v>
+      </c>
+      <c r="BD4" s="8">
+        <v>9</v>
+      </c>
+      <c r="BE4" s="9">
         <v>4</v>
       </c>
-      <c r="AA4" s="23">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="22">
-        <v>3</v>
-      </c>
-      <c r="AD4" s="22">
-        <v>2</v>
-      </c>
-      <c r="AE4" s="22">
-        <v>3</v>
-      </c>
-      <c r="AF4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="22">
-        <v>2</v>
-      </c>
-      <c r="AI4" s="22">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="22">
-        <v>3</v>
-      </c>
-      <c r="AK4" s="23">
-        <v>3</v>
-      </c>
-      <c r="AL4" s="46">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="46">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="46">
-        <v>4</v>
-      </c>
-      <c r="AO4" s="46">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="46">
-        <v>3</v>
-      </c>
-      <c r="AQ4" s="21">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="22">
-        <v>2</v>
-      </c>
-      <c r="AS4" s="22">
-        <v>2</v>
-      </c>
-      <c r="AT4" s="22">
-        <v>2</v>
-      </c>
-      <c r="AU4" s="23">
-        <v>2</v>
-      </c>
-      <c r="AV4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="22">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="22">
-        <v>3</v>
-      </c>
-      <c r="AY4" s="22">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="23">
-        <v>4</v>
-      </c>
-      <c r="BA4" s="22">
-        <v>1</v>
-      </c>
-      <c r="BB4" s="22">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="22">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="22">
-        <v>4</v>
-      </c>
-      <c r="BE4" s="23">
-        <v>3</v>
-      </c>
     </row>
-    <row r="5" spans="2:57" x14ac:dyDescent="0.3">
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="24">
-        <v>0</v>
-      </c>
-      <c r="D5" s="25">
-        <v>0</v>
-      </c>
-      <c r="E5" s="25">
-        <v>11.111111111111111</v>
-      </c>
-      <c r="F5" s="25">
-        <v>66.666666666666657</v>
-      </c>
-      <c r="G5" s="1">
-        <v>22.222222222222221</v>
-      </c>
-      <c r="H5" s="24">
-        <v>0</v>
-      </c>
-      <c r="I5" s="25">
-        <v>0</v>
-      </c>
-      <c r="J5" s="25">
-        <v>22.222222222222221</v>
-      </c>
-      <c r="K5" s="25">
-        <v>22.222222222222221</v>
-      </c>
-      <c r="L5" s="1">
-        <v>55.555555555555557</v>
-      </c>
-      <c r="M5" s="24">
-        <v>11.111111111111111</v>
-      </c>
-      <c r="N5" s="25">
-        <v>11.111111111111111</v>
-      </c>
-      <c r="O5" s="25">
-        <v>11.111111111111111</v>
-      </c>
-      <c r="P5" s="25">
-        <v>55.555555555555557</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>11.111111111111111</v>
-      </c>
-      <c r="R5" s="24">
-        <v>0</v>
-      </c>
-      <c r="S5" s="25">
-        <v>11.111111111111111</v>
-      </c>
-      <c r="T5" s="25">
-        <v>22.222222222222221</v>
-      </c>
-      <c r="U5" s="25">
-        <v>44.444444444444443</v>
-      </c>
-      <c r="V5" s="1">
-        <v>22.222222222222221</v>
-      </c>
-      <c r="W5" s="24">
-        <v>0</v>
-      </c>
-      <c r="X5" s="25">
-        <v>11.111111111111111</v>
-      </c>
-      <c r="Y5" s="25">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="Z5" s="25">
-        <v>44.444444444444443</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>11.111111111111111</v>
-      </c>
-      <c r="AB5" s="24">
-        <v>11.111111111111111</v>
-      </c>
-      <c r="AC5" s="25">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="AD5" s="25">
-        <v>22.222222222222221</v>
-      </c>
-      <c r="AE5" s="25">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="24">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="25">
-        <v>22.222222222222221</v>
-      </c>
-      <c r="AI5" s="25">
-        <v>11.111111111111111</v>
-      </c>
-      <c r="AJ5" s="25">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="AL5" s="47">
-        <v>11.111111111111111</v>
-      </c>
-      <c r="AM5" s="47">
-        <v>11.111111111111111</v>
-      </c>
-      <c r="AN5" s="47">
-        <v>44.444444444444443</v>
-      </c>
-      <c r="AO5" s="47">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="47">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="AQ5" s="24">
-        <v>11.111111111111111</v>
-      </c>
-      <c r="AR5" s="25">
-        <v>22.222222222222221</v>
-      </c>
-      <c r="AS5" s="25">
-        <v>22.222222222222221</v>
-      </c>
-      <c r="AT5" s="25">
-        <v>22.222222222222221</v>
-      </c>
-      <c r="AU5" s="1">
-        <v>22.222222222222221</v>
-      </c>
-      <c r="AV5" s="24">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="25">
-        <v>11.111111111111111</v>
-      </c>
-      <c r="AX5" s="25">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="AY5" s="25">
-        <v>11.111111111111111</v>
-      </c>
-      <c r="AZ5" s="1">
-        <v>44.444444444444443</v>
-      </c>
-      <c r="BA5" s="25">
-        <v>11.111111111111111</v>
-      </c>
-      <c r="BB5" s="25">
-        <v>11.111111111111111</v>
-      </c>
-      <c r="BC5" s="25">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="25">
-        <v>44.444444444444443</v>
-      </c>
-      <c r="BE5" s="1">
-        <v>33.333333333333329</v>
+      <c r="C5" s="55">
+        <v>0</v>
+      </c>
+      <c r="D5" s="56">
+        <v>5</v>
+      </c>
+      <c r="E5" s="56">
+        <v>5</v>
+      </c>
+      <c r="F5" s="56">
+        <v>65</v>
+      </c>
+      <c r="G5" s="57">
+        <v>25</v>
+      </c>
+      <c r="H5" s="55">
+        <v>0</v>
+      </c>
+      <c r="I5" s="56">
+        <v>0</v>
+      </c>
+      <c r="J5" s="56">
+        <v>20</v>
+      </c>
+      <c r="K5" s="56">
+        <v>35</v>
+      </c>
+      <c r="L5" s="57">
+        <v>45</v>
+      </c>
+      <c r="M5" s="55">
+        <v>15</v>
+      </c>
+      <c r="N5" s="56">
+        <v>15</v>
+      </c>
+      <c r="O5" s="56">
+        <v>10</v>
+      </c>
+      <c r="P5" s="56">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="57">
+        <v>15</v>
+      </c>
+      <c r="R5" s="55">
+        <v>0</v>
+      </c>
+      <c r="S5" s="56">
+        <v>10</v>
+      </c>
+      <c r="T5" s="56">
+        <v>15</v>
+      </c>
+      <c r="U5" s="56">
+        <v>45</v>
+      </c>
+      <c r="V5" s="57">
+        <v>30</v>
+      </c>
+      <c r="W5" s="55">
+        <v>0</v>
+      </c>
+      <c r="X5" s="56">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="56">
+        <v>35</v>
+      </c>
+      <c r="Z5" s="56">
+        <v>45</v>
+      </c>
+      <c r="AA5" s="57">
+        <v>10</v>
+      </c>
+      <c r="AB5" s="55">
+        <v>5</v>
+      </c>
+      <c r="AC5" s="56">
+        <v>30</v>
+      </c>
+      <c r="AD5" s="56">
+        <v>20</v>
+      </c>
+      <c r="AE5" s="56">
+        <v>40</v>
+      </c>
+      <c r="AF5" s="57">
+        <v>5</v>
+      </c>
+      <c r="AG5" s="55">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="56">
+        <v>10</v>
+      </c>
+      <c r="AI5" s="56">
+        <v>10</v>
+      </c>
+      <c r="AJ5" s="56">
+        <v>50</v>
+      </c>
+      <c r="AK5" s="57">
+        <v>30</v>
+      </c>
+      <c r="AL5" s="56">
+        <v>5</v>
+      </c>
+      <c r="AM5" s="56">
+        <v>5</v>
+      </c>
+      <c r="AN5" s="56">
+        <v>45</v>
+      </c>
+      <c r="AO5" s="56">
+        <v>20</v>
+      </c>
+      <c r="AP5" s="56">
+        <v>25</v>
+      </c>
+      <c r="AQ5" s="55">
+        <v>5</v>
+      </c>
+      <c r="AR5" s="56">
+        <v>15</v>
+      </c>
+      <c r="AS5" s="56">
+        <v>25</v>
+      </c>
+      <c r="AT5" s="56">
+        <v>35</v>
+      </c>
+      <c r="AU5" s="57">
+        <v>20</v>
+      </c>
+      <c r="AV5" s="55">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="56">
+        <v>15</v>
+      </c>
+      <c r="AX5" s="56">
+        <v>15</v>
+      </c>
+      <c r="AY5" s="56">
+        <v>30</v>
+      </c>
+      <c r="AZ5" s="57">
+        <v>40</v>
+      </c>
+      <c r="BA5" s="56">
+        <v>10</v>
+      </c>
+      <c r="BB5" s="56">
+        <v>15</v>
+      </c>
+      <c r="BC5" s="56">
+        <v>10</v>
+      </c>
+      <c r="BD5" s="56">
+        <v>45</v>
+      </c>
+      <c r="BE5" s="57">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="AG2:AK2"/>
-    <mergeCell ref="AL2:AP2"/>
-    <mergeCell ref="AQ2:AU2"/>
-    <mergeCell ref="AV2:AZ2"/>
     <mergeCell ref="BA2:BE2"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:L2"/>
@@ -2055,6 +2085,11 @@
     <mergeCell ref="R2:V2"/>
     <mergeCell ref="W2:AA2"/>
     <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="AQ2:AU2"/>
+    <mergeCell ref="AV2:AZ2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
